--- a/entalpie.xlsx
+++ b/entalpie.xlsx
@@ -561,11 +561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:CO3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
